--- a/SampleQuestions.xlsx
+++ b/SampleQuestions.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ayushgupta/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\BRANCE TASK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0D9E7CE-864B-5C47-BF42-29BFD776555D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6065205-E24F-4611-AE63-F2A8F8EE845C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="600" windowWidth="22700" windowHeight="13340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="101">
   <si>
     <t>Question</t>
   </si>
@@ -264,12 +264,207 @@
   <si>
     <t>Ideal Answer</t>
   </si>
+  <si>
+    <t>The documents required to apply for a new PAN card are as follows:
+If you have an Aadhaar card:
+-No other document is required. You can get your PAN card through your Aadhaar card in 10 minutes.
+If you don't have an Aadhaar card:
+-Passport (Any Country) / OCI Card
+-Passport Size Photograph
+-Overseas address proof with zip code (Supporting documents - Indian NRO/NRE Account statement or Overseas bank statement or Utility bill)</t>
+  </si>
+  <si>
+    <t>The cost/fees of a PAN card depends on the type of card you choose. The e-PAN card, which is a digital version, costs INR 2500. If you prefer to have a physical PAN card delivered to your address, it will cost INR 3700, which includes an additional fee of INR 1200 for courier services.</t>
+  </si>
+  <si>
+    <t>Yes, you can take the delivery of your PAN card at an Indian address mentioned in your Aadhaar card. While applying for a new PAN card or requesting corrections, you can provide your Indian address as the delivery address. Make sure to provide accurate and complete address details to ensure successful delivery.</t>
+  </si>
+  <si>
+    <t>The duration to receive your PAN card after applying can vary, but it generally takes around 2-3 weeks. However, please note that this is an estimate and the actual time may depend on various factors such as the processing time of the authorities and the delivery service in your area. It's always a good idea to keep track of your application status and contact the relevant authorities if there are any delays.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+To apply for a new PAN Card, follow these steps:
+Visit the ABC app.
+1. Navigate to Services &gt; NRI Pan Card &gt; Apply New PAN.
+2. Select the required form of PAN card and proceed with the payment.
+3. Our team will contact you to request the following documents:
+  - Passport (from any country) or OCI Card.
+  - Passport-size photograph.
+  - Overseas address proof with a zip code. You can provide supporting documents such as an Indian NRO/NRE Account statement, overseas bank statement, or utility bill.
+Please note that this information is based on the provided document and may be subject to change.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+To apply for a new PAN Card, follow these steps:
+Visit the ABC app.
+1. Navigate to Services &gt; NRI Pan Card &gt; Apply New PAN.
+2. Select the required form of PAN card and proceed with the payment.
+3. Our team will contact you to request the following documents:
+  - Passport (from any country) or OCI Card.
+  - Passport-size photograph.
+  - Overseas address proof with a zip code. You can provide supporting documents such as an Indian NRO/NRE Account statement, overseas bank statement, or utility bill.
+Please note that this information is based on the provided document and may be subject to change. It is always best to consult the official website or relevant authorities for the most up-to-date and accurate information regarding the PAN card application process.</t>
+  </si>
+  <si>
+    <t>Yes, as a non-resident Indian (NRI), you can apply for a PAN card (Permanent Account Number) in India. The PAN card is a unique ten-digit alphanumeric identifier issued by the Indian Income Tax Department to track financial transactions and income tax payments.</t>
+  </si>
+  <si>
+    <t>Yes, NRIs can apply for a PAN card without an Aadhaar card.</t>
+  </si>
+  <si>
+    <t>The charges for linking Pan and Aadhaar, including any penalty charges for the delay in linking, are INR 2000/-.</t>
+  </si>
+  <si>
+    <t>It takes up to 6 to 7 days for Pan &amp; Aadhaar linking for NRIs.</t>
+  </si>
+  <si>
+    <t>No, Aadhaar-PAN linking is not mandatory for NRIs. It is optional for them. However, to avoid any legal complications in India, NRIs should either link their PAN to Aadhaar or update their status as non-resident.</t>
+  </si>
+  <si>
+    <t>Yes, the linking of PAN and Aadhaar cards for NRIs residing in the USA can be done online. There is no need to visit a service center. ABC can assist them digitally in the process.</t>
+  </si>
+  <si>
+    <t>All individuals and non-individuals, including foreign citizens and entities, earning taxable income in India need to have a PAN card.</t>
+  </si>
+  <si>
+    <t>There are two types of PAN cards: e-PAN card and physical PAN card.</t>
+  </si>
+  <si>
+    <t>NRIs (Non-Resident Indians) need a PAN card in certain situations related to financial transactions and income tax filing in India. While NRIs are not required to have a PAN card in general, it becomes necessary if they wish to engage in the following activities:
+Financial transactions: NRIs who want to carry out financial transactions in India, such as opening a bank account, investing in stocks, or buying/selling property, may need a PAN card. It serves as a unique identification number for these transactions.
+Income tax returns: If an NRI earns income in India, they are required to file income tax returns. To fulfill this requirement, having a PAN card is necessary. It helps the Indian government in tracking and managing tax-related matters.
+In summary, while NRIs are not obligated to possess a PAN card, it becomes essential for them when they engage in financial transactions or earn income in India and need to comply with tax regulations.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The requirement of a PAN card to open an NRI account depends on the type of NRI account being opened. Here's an overview of the PAN card requirements for different types of NRI accounts:
+NRE Account: NRIs can opt for Form 60 as a substitute for PAN card while opening an NRE (Non-Resident External) account. Form 60 serves as an alternative to PAN for this particular account type.
+NRO Account: A PAN card is mandatory for opening an NRO (Non-Resident Ordinary) account. NRO accounts are used for funds earned in India that are mostly liable to taxes. Therefore, having a PAN card is necessary for NRO accounts.
+FCNR Account: For FCNR (Foreign Currency Non-Resident) accounts, which involve foreign currency term deposits from outside India, the principal and interest earned are tax-free. Hence, the usage of a PAN card is not necessary for FCNR accounts, and it can be substituted with Form 60.
+</t>
+  </si>
+  <si>
+    <t>Chatbot Answers</t>
+  </si>
+  <si>
+    <t>PAN क्या है?</t>
+  </si>
+  <si>
+    <t>PAN कार्ड एक अद्वितीय दस-अंकीय अल्फान्यूमेरिक पहचान संख्या है जो भारत के आयकर विभाग द्वारा जारी की जाती है, इसका उपयोग व्यक्तियों और संगठनों की कर संबंधित लेनदेन को ट्रैक करने के लिए किया जाता है। PAN कार्ड भारत में किसी भी वित्तीय लेनदेन के लिए अनिवार्य है, जिसमें बैंक खाता खोलना, संपत्ति खरीदना या बेचना, और आयकर रिटर्न दाखिल करना शामिल है।</t>
+  </si>
+  <si>
+    <t>NRI can apply for a new PAN card by:
+1. Visit ABI  app
+2. Navigate to Services &gt; NRI Pan Card &gt; Apply New PAN
+3. Select the required form of PAN card and proceed with the payment
+4. Our team will get in touch with you to ask for the following documents:
+    - Passport(Any Country) / OCI Card
+    - Passport Size Photograph
+    - Overseas address proof with zip code (Supporting documents - Indian NRO/NRE Account statement or Overseas bank statement or Utility bill)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+To change your Father's name on your PAN card, you need to follow the PAN card correction process. Here's the step-by-step guide:
+Gather the required documents:
+ - Copy of your existing PAN card.
+ - Passport (Any Country) or OCI Card.
+ - Passport size photograph.
+ - Overseas address proof with zip code. You can provide  supporting documents such as an Indian NRO/NRE Account statement, overseas bank statement, or utility bill.
+Initiate the PAN card correction process.
+Once your application is submitted, it will be processed by the authorities. This may take some time, so it's important to be patient during the review period.
+After the application is processed and approved, you will receive an updated PAN card with your Father's name corrected.
+                                                                                                                                                                                                                                      </t>
+  </si>
+  <si>
+    <t>To update the details on your PAN card, you need to follow these steps:
+Go to the ABC app.
+Navigate to Services &gt; NRI PAN Card &gt; PAN Card Correction.
+Request a reissue of the required PAN card and make the payment.
+Our team will reach out to you to provide the necessary documents.
+Please note that this information is based on the given document and may vary depending on the specific procedures of the organization or country involved.</t>
+  </si>
+  <si>
+    <t>Based on the given information, there are no direct provisions to change the citizenship on a PAN Card since the PAN Card itself does not display your citizenship. The PAN Card is primarily used for tax filing, investments, and transactions in India, regardless of whether you are a citizen, NRI (Non-Resident Indian), or OCI (Overseas Citizen of India).
+To change the citizenship information associated with your PAN Card, you would need to meet and notify your jurisdictional Assessing Officer. However, it is mentioned that for NRIs, meeting the assessing officer might not be easy. In such cases, you can consider reaching out to ABC (an organization or service provider) who can meet or notify the jurisdictional assessing officer on your behalf. It is recommended to contact a tax expert at SBNRI for assistance in changing your citizenship details on the PAN Card.
+Please note that the process and requirements may vary, and it is always advisable to consult with a tax expert or follow the guidelines provided by the relevant authorities or service providers.</t>
+  </si>
+  <si>
+    <t>Generally, it takes approximately one month to complete the process of updating the citizenship status on a PAN Card. However, it is important to note that the duration can vary depending on various factors, including the workload of the authorities and their responsiveness. Delays may occur due to the volume of requests they receive or any additional verification processes that need to be carried out. It is advisable to be prepared for potential variations in the timeline and allow for sufficient time for the update to be processed.</t>
+  </si>
+  <si>
+    <t>The process to link PAN with Aadhar is as follows
+1. Go to ABC app
+2. Navigate to Services &gt; NRI PAN Card &gt; Link PAN with Aadhaar
+3. Request reissue the required PAN Card and make the payment
+4. Our team will reach out to you for the required documents</t>
+  </si>
+  <si>
+    <t>The documents required to link PAN with Aadhaar are the PAN card and Aadhaar card.</t>
+  </si>
+  <si>
+    <t>To change your Date of Birth (DOB) on your PAN card, you can follow the process outlined below:
+1. Download and install the ABC app.
+2. Open the app and navigate to the Services section.
+3. Look for the option "NRI PAN Card" and select it.
+4. In the subsequent menu, choose "PAN Card Correction."
+5. Follow the instructions provided to request the reissue of your PAN card with the updated DOB.
+6. Make the necessary payment for the PAN card correction process.
+7. After submitting your request, the SBNRI team will contact you to provide the required documents for the DOB updation.
+8. Prepare and submit the necessary documents as per the instructions given by the SBNRI team.</t>
+  </si>
+  <si>
+    <t>No, your PAN (Permanent Account Number) does not change when you reissue your PAN card. The PAN number assigned to you remains the same throughout your lifetime, regardless of any updates or reissue of the PAN card.</t>
+  </si>
+  <si>
+    <t>To correct your PAN card details, you will need to submit the following documents:
+1. Copy of your existing PAN card.
+2. Passport (any country) or OCI card.
+3. Passport-sized photograph.
+4. Overseas address proof with zip code. The supporting documents for this can be an Indian NRO/NRE account statement, overseas bank statement, or utility bill.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The charges for correcting details on your PAN card is INR 2,500 for reissuing an E-PAN card. </t>
+  </si>
+  <si>
+    <t>To reprint your PAN card, you can follow the procedure outlined below:
+1. Gather the necessary documents: You will need to collect the required documents to authenticate your identity. These typically include proof of identity (such as Aadhaar card, passport, driver's license, etc.), proof of address (such as Aadhaar card, utility bills, bank statement, etc.), and a passport-sized photograph.
+2. Contact ABC: ABC is a platform that can assist you with the PAN card reprint process. Get in touch with them through their website or contact details to seek their guidance and support.
+3. Provide the required details: ABC will guide you through the process and provide you with a list of information and documents that need to be submitted. Make sure to provide accurate and up-to-date information to avoid any delays or issues.
+4. Await processing: The PAN card reprint process may take around 2-3 weeks for completion. During this time, the authorities will verify the information and documents provided. You may be issued a new PAN card with the same PAN number as the original.</t>
+  </si>
+  <si>
+    <t>If you remember your PAN card number, the documents required for reprinting your PAN card are as follows:
+- PAN card number
+- Passport (Any Country) / OCI Card
+- Passport size photograph
+- Overseas address proof with zip code (Supporting documents can include an Indian NRO/NRE Account statement, overseas bank statement, or utility bill).
+If you don't remember your PAN card number, the process becomes tricky, and a representative will reach out to you to inform you about the specific process for reprinting your PAN card.</t>
+  </si>
+  <si>
+    <t>It usually takes 2-3 weeks to reprint a pan card.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The charges for reprinting a PAN card are INR 2500 for e-PAN and INR 3700 for a physical PAN card.
+</t>
+  </si>
+  <si>
+    <t>Yes, you can take the delivery of your PAN card at an Indian address. When applying for a new PAN card or requesting corrections, you can provide your Indian address mentioned on your Aadhar card as the delivery address. Just make sure to provide accurate and complete address details to ensure successful delivery.</t>
+  </si>
+  <si>
+    <t>Yes, you can apply for a PAN card without an Aadhaar card. If you are an NRI (Non-Resident Indian) or a foreign citizen, you can fill out either Form 49A (for Indian citizens) or Form 49AA (for foreign citizens) to apply for a PAN card.</t>
+  </si>
+  <si>
+    <t>Yes, as a non-resident Indian (NRI), you can apply for a PAN card. The process for applying for a PAN card is the same for both residents and NRIs. However, if you are an OCI holder or a person of Indian origin who holds foreign citizenship, you will need to fill out Form 49AA to apply for a PAN card.</t>
+  </si>
+  <si>
+    <t>The PAN card is a unique ten-digit alphanumeric identification number that is issued by the Income Tax Department of India to track the tax-related transactions of individuals and entities. The PAN card is mandatory for any financial transaction in India, including opening a bank account, buying or selling property, and filing income tax returns.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -281,6 +476,26 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF374151"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF374151"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -321,7 +536,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -331,6 +546,19 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -636,299 +864,417 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="92" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="43.83203125" customWidth="1"/>
+    <col min="1" max="1" width="43.77734375" customWidth="1"/>
     <col min="2" max="2" width="51.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="57" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="192" x14ac:dyDescent="0.2">
+      <c r="C1" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="80" x14ac:dyDescent="0.2">
+      <c r="C2" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="96" x14ac:dyDescent="0.2">
+      <c r="C3" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="96" x14ac:dyDescent="0.2">
+      <c r="C4" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="208" x14ac:dyDescent="0.2">
+      <c r="C5" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="216" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="208" x14ac:dyDescent="0.2">
+      <c r="C6" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="80" x14ac:dyDescent="0.2">
+      <c r="C7" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="75" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="C8" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="58.2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+      <c r="C9" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="58.2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="C10" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="C11" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="60" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="C12" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="45" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="C13" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="45" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="208" x14ac:dyDescent="0.2">
+      <c r="C14" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="202.2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" ht="128" x14ac:dyDescent="0.2">
+      <c r="C15" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="288" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="192" x14ac:dyDescent="0.2">
+      <c r="C16" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="208" x14ac:dyDescent="0.2">
+      <c r="C17" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="144" x14ac:dyDescent="0.2">
+      <c r="C18" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="160" x14ac:dyDescent="0.2">
+      <c r="C19" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="C20" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" ht="112" x14ac:dyDescent="0.2">
+      <c r="C21" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" ht="96" x14ac:dyDescent="0.2">
+      <c r="C22" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" ht="224" x14ac:dyDescent="0.2">
+      <c r="C23" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="331.2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" ht="176" x14ac:dyDescent="0.2">
+      <c r="C24" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="216" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="C25" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" ht="192" x14ac:dyDescent="0.2">
+      <c r="C26" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="C27" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" ht="96" x14ac:dyDescent="0.2">
+      <c r="C28" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="316.8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" ht="208" x14ac:dyDescent="0.2">
+      <c r="C29" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+      <c r="C30" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="C31" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" ht="96" x14ac:dyDescent="0.2">
+      <c r="C32" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="C33" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>8</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" ht="80" x14ac:dyDescent="0.2">
+      <c r="C34" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>7</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>38</v>
       </c>
+      <c r="C35" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>80</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>81</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>